--- a/Code/Results/Cases/Case_2_138/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_138/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.619104014147922</v>
+        <v>1.330446976246833</v>
       </c>
       <c r="C2">
-        <v>0.4310058121396878</v>
+        <v>0.194157323651325</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0363857029526361</v>
+        <v>0.0936705614147576</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.9372446958655729</v>
+        <v>1.087524282702759</v>
       </c>
       <c r="H2">
-        <v>0.5973819925286676</v>
+        <v>1.056188439281073</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1494582709231267</v>
+        <v>0.1902377651464704</v>
       </c>
       <c r="M2">
-        <v>0.4348729144324039</v>
+        <v>0.2772243007943302</v>
       </c>
       <c r="N2">
-        <v>0.7891760128496474</v>
+        <v>1.593763168748349</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.274589090675931</v>
+        <v>1.23957629976951</v>
       </c>
       <c r="C3">
-        <v>0.382714755387326</v>
+        <v>0.1787859840349029</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03699966907170193</v>
+        <v>0.09411637750768043</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.8648924844682853</v>
+        <v>1.078970107672077</v>
       </c>
       <c r="H3">
-        <v>0.5726789435171185</v>
+        <v>1.058313323287422</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1353882376667528</v>
+        <v>0.1876884228158389</v>
       </c>
       <c r="M3">
-        <v>0.3797221313831116</v>
+        <v>0.263402940416043</v>
       </c>
       <c r="N3">
-        <v>0.842952241582867</v>
+        <v>1.614770197836771</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.065207531564454</v>
+        <v>1.1843680810656</v>
       </c>
       <c r="C4">
-        <v>0.3531722581545012</v>
+        <v>0.1692675202043574</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03739970032308237</v>
+        <v>0.09440676254712221</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.8230122215129398</v>
+        <v>1.074568236877667</v>
       </c>
       <c r="H4">
-        <v>0.5589321463644978</v>
+        <v>1.060231973323212</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1269440660466756</v>
+        <v>0.1862177759352974</v>
       </c>
       <c r="M4">
-        <v>0.3462697169716904</v>
+        <v>0.2550543192679839</v>
       </c>
       <c r="N4">
-        <v>0.8774174178066305</v>
+        <v>1.628317568016519</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.980351894693626</v>
+        <v>1.162018004448157</v>
       </c>
       <c r="C5">
-        <v>0.341151380777589</v>
+        <v>0.1653683984207532</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03756844142625115</v>
+        <v>0.09452929240867658</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.8065347129164167</v>
+        <v>1.072987454399041</v>
       </c>
       <c r="H5">
-        <v>0.5536641280761501</v>
+        <v>1.061167970562039</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1235481342572697</v>
+        <v>0.1856422979994505</v>
       </c>
       <c r="M5">
-        <v>0.3327286624056498</v>
+        <v>0.2516868612507395</v>
       </c>
       <c r="N5">
-        <v>0.8918145268144562</v>
+        <v>1.634001296124298</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.966287996770291</v>
+        <v>1.15831571885667</v>
       </c>
       <c r="C6">
-        <v>0.3391561465058572</v>
+        <v>0.1647197264116755</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03759680455132186</v>
+        <v>0.09454989204672115</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.8038327919909563</v>
+        <v>1.072737808054583</v>
       </c>
       <c r="H6">
-        <v>0.5528088905752071</v>
+        <v>1.061332693993677</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.122986860178294</v>
+        <v>0.1855481797501639</v>
       </c>
       <c r="M6">
-        <v>0.3304853426603245</v>
+        <v>0.2511297926447895</v>
       </c>
       <c r="N6">
-        <v>0.8942261124475928</v>
+        <v>1.634954920013585</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.064061331292123</v>
+        <v>1.184066061757107</v>
       </c>
       <c r="C7">
-        <v>0.3530100796321562</v>
+        <v>0.1692150174249321</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0374019529343359</v>
+        <v>0.09440839802856082</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.8227876796804026</v>
+        <v>1.074546056503735</v>
       </c>
       <c r="H7">
-        <v>0.5588597778143196</v>
+        <v>1.060243972777727</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1268980894963292</v>
+        <v>0.1862099183549049</v>
       </c>
       <c r="M7">
-        <v>0.3460867442325082</v>
+        <v>0.2550087641154022</v>
       </c>
       <c r="N7">
-        <v>0.8776101704598842</v>
+        <v>1.62839356068836</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.499823558687524</v>
+        <v>1.29899306187508</v>
       </c>
       <c r="C8">
-        <v>0.4143267075132826</v>
+        <v>0.1888739359385454</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03659256859769067</v>
+        <v>0.09382082764458799</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.9117379470538793</v>
+        <v>1.084397789859139</v>
       </c>
       <c r="H8">
-        <v>0.588554864976615</v>
+        <v>1.056793515364831</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1445640622358439</v>
+        <v>0.1893391156578872</v>
       </c>
       <c r="M8">
-        <v>0.4157641760864834</v>
+        <v>0.2724301209722313</v>
       </c>
       <c r="N8">
-        <v>0.8074107539893234</v>
+        <v>1.600871625736817</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.374988126242783</v>
+        <v>1.529025593851657</v>
       </c>
       <c r="C9">
-        <v>0.5358927115423171</v>
+        <v>0.2267912409332666</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03519184328936942</v>
+        <v>0.09280035333885195</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>1.108839100482555</v>
+        <v>1.110505017616006</v>
       </c>
       <c r="H9">
-        <v>0.6592063656723894</v>
+        <v>1.054911376582041</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1809431323223833</v>
+        <v>0.1962262588795269</v>
       </c>
       <c r="M9">
-        <v>0.5562554458825488</v>
+        <v>0.307686974908961</v>
       </c>
       <c r="N9">
-        <v>0.6817788211653859</v>
+        <v>1.552055236249474</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.036015156063286</v>
+        <v>1.700899153346484</v>
       </c>
       <c r="C10">
-        <v>0.6267324612123559</v>
+        <v>0.2542709883035172</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03428191902264821</v>
+        <v>0.09213039975912096</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>1.271247274674522</v>
+        <v>1.133883841749707</v>
       </c>
       <c r="H10">
-        <v>0.720427616547795</v>
+        <v>1.056525420619892</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2090183977931446</v>
+        <v>0.2017444259903414</v>
       </c>
       <c r="M10">
-        <v>0.6627395408225993</v>
+        <v>0.3342609514943362</v>
       </c>
       <c r="N10">
-        <v>0.5976426251555949</v>
+        <v>1.519337280364566</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.342010125455317</v>
+        <v>1.779718992429821</v>
       </c>
       <c r="C11">
-        <v>0.6685695224650203</v>
+        <v>0.2666920786650735</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03389527531120917</v>
+        <v>0.09184283379509472</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>1.349890851137673</v>
+        <v>1.145444165407753</v>
       </c>
       <c r="H11">
-        <v>0.7507342576932388</v>
+        <v>1.057914760269796</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2221545601818633</v>
+        <v>0.2043544416632983</v>
       </c>
       <c r="M11">
-        <v>0.7121182316320258</v>
+        <v>0.3464968894414611</v>
       </c>
       <c r="N11">
-        <v>0.5613466408666845</v>
+        <v>1.505137685462277</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.45876871893654</v>
+        <v>1.809657319970086</v>
       </c>
       <c r="C12">
-        <v>0.6845028222206224</v>
+        <v>0.2713842795383528</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03375292632080829</v>
+        <v>0.09173640493039237</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>1.380443564468976</v>
+        <v>1.149955798290222</v>
       </c>
       <c r="H12">
-        <v>0.7626042862540885</v>
+        <v>1.058535399968264</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2271878768751066</v>
+        <v>0.2053571315477853</v>
       </c>
       <c r="M12">
-        <v>0.7309725941242533</v>
+        <v>0.3511515273607557</v>
       </c>
       <c r="N12">
-        <v>0.5479062442034595</v>
+        <v>1.499859176680873</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.433581192366091</v>
+        <v>1.803205522185237</v>
       </c>
       <c r="C13">
-        <v>0.681066990084048</v>
+        <v>0.2703742362145931</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03378340050587081</v>
+        <v>0.09175921672163967</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>1.373827666282267</v>
+        <v>1.148978163038322</v>
       </c>
       <c r="H13">
-        <v>0.7600296727850093</v>
+        <v>1.058397524795453</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2261011302351932</v>
+        <v>0.205140547062328</v>
       </c>
       <c r="M13">
-        <v>0.7269046903511693</v>
+        <v>0.3501481274105203</v>
       </c>
       <c r="N13">
-        <v>0.5507870141719748</v>
+        <v>1.500991610576326</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.35159743225779</v>
+        <v>1.782180214450818</v>
       </c>
       <c r="C14">
-        <v>0.6698784485265605</v>
+        <v>0.2670783369789547</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03388348184037104</v>
+        <v>0.09183402844407818</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>1.35238843564818</v>
+        <v>1.145812649358476</v>
       </c>
       <c r="H14">
-        <v>0.7517026787813563</v>
+        <v>1.057963924342914</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.222567433399945</v>
+        <v>0.2044366463739067</v>
       </c>
       <c r="M14">
-        <v>0.7136661438870959</v>
+        <v>0.3468794055057387</v>
       </c>
       <c r="N14">
-        <v>0.5602346767979518</v>
+        <v>1.504701442628066</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.301499162666573</v>
+        <v>1.769313448176604</v>
       </c>
       <c r="C15">
-        <v>0.6630374573499012</v>
+        <v>0.265058020810983</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03394531837380432</v>
+        <v>0.09188017373654933</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>1.339359578792596</v>
+        <v>1.143891158453073</v>
       </c>
       <c r="H15">
-        <v>0.7466546749292888</v>
+        <v>1.057710651416045</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2204108215737506</v>
+        <v>0.2040073531370155</v>
       </c>
       <c r="M15">
-        <v>0.7055780843397415</v>
+        <v>0.3448799729994576</v>
       </c>
       <c r="N15">
-        <v>0.5660618643634354</v>
+        <v>1.506986665064534</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.016134449580704</v>
+        <v>1.695760829161372</v>
       </c>
       <c r="C16">
-        <v>0.6240100281262926</v>
+        <v>0.2534576434396456</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03430774779422219</v>
+        <v>0.09214953835516493</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>1.266210828158108</v>
+        <v>1.133147045427563</v>
       </c>
       <c r="H16">
-        <v>0.7184997923837955</v>
+        <v>1.056447833958856</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2081677972140739</v>
+        <v>0.2015758618406807</v>
       </c>
       <c r="M16">
-        <v>0.6595331403410185</v>
+        <v>0.3334642658272102</v>
       </c>
       <c r="N16">
-        <v>0.6000560923113545</v>
+        <v>1.520279038783134</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.842511873301135</v>
+        <v>1.650800867098724</v>
       </c>
       <c r="C17">
-        <v>0.6002107941144175</v>
+        <v>0.2463208376727266</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03453716970949916</v>
+        <v>0.09231918488993651</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>1.222615669675548</v>
+        <v>1.126793514560177</v>
       </c>
       <c r="H17">
-        <v>0.7018843040473826</v>
+        <v>1.055841153250981</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2007549130486268</v>
+        <v>0.2001097651498327</v>
       </c>
       <c r="M17">
-        <v>0.6315405642735925</v>
+        <v>0.3264988063245227</v>
       </c>
       <c r="N17">
-        <v>0.6214304485274598</v>
+        <v>1.528608811730023</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.743138572232624</v>
+        <v>1.62500074123534</v>
       </c>
       <c r="C18">
-        <v>0.5865693466808182</v>
+        <v>0.2422084419477528</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03467168592161274</v>
+        <v>0.09241838038842021</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>1.197983511531959</v>
+        <v>1.123226156821431</v>
       </c>
       <c r="H18">
-        <v>0.6925561152355328</v>
+        <v>1.055553848372057</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1965251089492455</v>
+        <v>0.199275897073008</v>
       </c>
       <c r="M18">
-        <v>0.6155269535031422</v>
+        <v>0.3225063246412816</v>
       </c>
       <c r="N18">
-        <v>0.6339093023282212</v>
+        <v>1.53346424179373</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.70957302638493</v>
+        <v>1.616275512804577</v>
       </c>
       <c r="C19">
-        <v>0.5819582228839977</v>
+        <v>0.240814766917623</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03471766626763273</v>
+        <v>0.09245224461361579</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>1.189716995399522</v>
+        <v>1.122033228592898</v>
       </c>
       <c r="H19">
-        <v>0.6894358523809103</v>
+        <v>1.05546714909886</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1950986025433821</v>
+        <v>0.1989951771783609</v>
       </c>
       <c r="M19">
-        <v>0.6101193598355792</v>
+        <v>0.3211569213998331</v>
       </c>
       <c r="N19">
-        <v>0.6381656150155899</v>
+        <v>1.535119255239112</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.860942740000212</v>
+        <v>1.655580758925112</v>
       </c>
       <c r="C20">
-        <v>0.6027392589510612</v>
+        <v>0.2470813380643051</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03451248156541453</v>
+        <v>0.09230095818714301</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>1.227210035916897</v>
+        <v>1.127460845149614</v>
       </c>
       <c r="H20">
-        <v>0.7036291132148449</v>
+        <v>1.055899353438235</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2015404745008595</v>
+        <v>0.200264861714686</v>
       </c>
       <c r="M20">
-        <v>0.6345112760907199</v>
+        <v>0.3272388564717446</v>
       </c>
       <c r="N20">
-        <v>0.6191358402192395</v>
+        <v>1.527715430126986</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.375652978888866</v>
+        <v>1.78835338944009</v>
       </c>
       <c r="C21">
-        <v>0.6731621958440428</v>
+        <v>0.2680467313890347</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03385397399939971</v>
+        <v>0.09181198755414988</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>1.358663963103965</v>
+        <v>1.146738793435247</v>
       </c>
       <c r="H21">
-        <v>0.7541374956554421</v>
+        <v>1.058088715272874</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.223603711194059</v>
+        <v>0.204643010165384</v>
       </c>
       <c r="M21">
-        <v>0.7175502234810338</v>
+        <v>0.3478389344716604</v>
       </c>
       <c r="N21">
-        <v>0.5574512492012271</v>
+        <v>1.503609098124248</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.717271236666818</v>
+        <v>1.875658127287579</v>
       </c>
       <c r="C22">
-        <v>0.7197243600218712</v>
+        <v>0.2816824235933382</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03344737205293713</v>
+        <v>0.09150678819289015</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>1.449124301148316</v>
+        <v>1.16011948336353</v>
       </c>
       <c r="H22">
-        <v>0.7894634529716029</v>
+        <v>1.060070717973957</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2383703420460961</v>
+        <v>0.2075879245118841</v>
       </c>
       <c r="M22">
-        <v>0.7727398801356031</v>
+        <v>0.3614255649957556</v>
       </c>
       <c r="N22">
-        <v>0.5189199796209913</v>
+        <v>1.488428860318612</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.534420532162585</v>
+        <v>1.829013486660926</v>
       </c>
       <c r="C23">
-        <v>0.6948181430778391</v>
+        <v>0.2744108579365161</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03366215659471949</v>
+        <v>0.09166836619928054</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>1.400396582395246</v>
+        <v>1.152906140654807</v>
       </c>
       <c r="H23">
-        <v>0.7703829914047731</v>
+        <v>1.058962349606276</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2304550368215672</v>
+        <v>0.2060085286441904</v>
       </c>
       <c r="M23">
-        <v>0.7431926100910431</v>
+        <v>0.3541628524604548</v>
       </c>
       <c r="N23">
-        <v>0.5393146467783696</v>
+        <v>1.496478186113838</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.852608769465348</v>
+        <v>1.653419620445277</v>
       </c>
       <c r="C24">
-        <v>0.6015960133745466</v>
+        <v>0.246737544970415</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03452363492975463</v>
+        <v>0.0923091932977258</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>1.225131586075662</v>
+        <v>1.127158879139444</v>
       </c>
       <c r="H24">
-        <v>0.7028395894109849</v>
+        <v>1.055872849639627</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2011852230988893</v>
+        <v>0.200194714491019</v>
       </c>
       <c r="M24">
-        <v>0.6331679705917708</v>
+        <v>0.3269042422527093</v>
       </c>
       <c r="N24">
-        <v>0.6201726408840642</v>
+        <v>1.528119120720211</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.135489570108234</v>
+        <v>1.466293937935518</v>
       </c>
       <c r="C25">
-        <v>0.5027942322694798</v>
+        <v>0.2166006050215401</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03555028339209498</v>
+        <v>0.09306236894773923</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>1.052721764031091</v>
+        <v>1.102709467567777</v>
       </c>
       <c r="H25">
-        <v>0.6385933970980489</v>
+        <v>1.054895674789762</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.17088741707677</v>
+        <v>0.1942826793285946</v>
       </c>
       <c r="M25">
-        <v>0.5177466606902428</v>
+        <v>0.298031568893137</v>
       </c>
       <c r="N25">
-        <v>0.7143965204432403</v>
+        <v>1.564709051518709</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_138/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_138/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.330446976246833</v>
+        <v>2.619104014147922</v>
       </c>
       <c r="C2">
-        <v>0.194157323651325</v>
+        <v>0.431005812140171</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0936705614147576</v>
+        <v>0.03638570295263077</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>1.087524282702759</v>
+        <v>0.9372446958656298</v>
       </c>
       <c r="H2">
-        <v>1.056188439281073</v>
+        <v>0.5973819925286676</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1902377651464704</v>
+        <v>0.1494582709231693</v>
       </c>
       <c r="M2">
-        <v>0.2772243007943302</v>
+        <v>0.4348729144324182</v>
       </c>
       <c r="N2">
-        <v>1.593763168748349</v>
+        <v>0.7891760128496266</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.23957629976951</v>
+        <v>2.274589090676102</v>
       </c>
       <c r="C3">
-        <v>0.1787859840349029</v>
+        <v>0.3827147553875534</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09411637750768043</v>
+        <v>0.03699966907171881</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>1.078970107672077</v>
+        <v>0.8648924844682568</v>
       </c>
       <c r="H3">
-        <v>1.058313323287422</v>
+        <v>0.5726789435172321</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1876884228158389</v>
+        <v>0.1353882376668807</v>
       </c>
       <c r="M3">
-        <v>0.263402940416043</v>
+        <v>0.3797221313831045</v>
       </c>
       <c r="N3">
-        <v>1.614770197836771</v>
+        <v>0.8429522415828856</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.1843680810656</v>
+        <v>2.065207531564454</v>
       </c>
       <c r="C4">
-        <v>0.1692675202043574</v>
+        <v>0.3531722581545012</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09440676254712221</v>
+        <v>0.03739970032307904</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>1.074568236877667</v>
+        <v>0.8230122215129398</v>
       </c>
       <c r="H4">
-        <v>1.060231973323212</v>
+        <v>0.5589321463645121</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1862177759352974</v>
+        <v>0.1269440660466188</v>
       </c>
       <c r="M4">
-        <v>0.2550543192679839</v>
+        <v>0.3462697169716904</v>
       </c>
       <c r="N4">
-        <v>1.628317568016519</v>
+        <v>0.8774174178066856</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.162018004448157</v>
+        <v>1.980351894693797</v>
       </c>
       <c r="C5">
-        <v>0.1653683984207532</v>
+        <v>0.3411513807775748</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09452929240867658</v>
+        <v>0.03756844142622973</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>1.072987454399041</v>
+        <v>0.806534712916374</v>
       </c>
       <c r="H5">
-        <v>1.061167970562039</v>
+        <v>0.5536641280762922</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1856422979994505</v>
+        <v>0.1235481342574261</v>
       </c>
       <c r="M5">
-        <v>0.2516868612507395</v>
+        <v>0.3327286624056427</v>
       </c>
       <c r="N5">
-        <v>1.634001296124298</v>
+        <v>0.8918145268144606</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.15831571885667</v>
+        <v>1.966287996770291</v>
       </c>
       <c r="C6">
-        <v>0.1647197264116755</v>
+        <v>0.3391561465059709</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.09454989204672115</v>
+        <v>0.03759680455132008</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>1.072737808054583</v>
+        <v>0.803832791990942</v>
       </c>
       <c r="H6">
-        <v>1.061332693993677</v>
+        <v>0.5528088905752071</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1855481797501639</v>
+        <v>0.1229868601783224</v>
       </c>
       <c r="M6">
-        <v>0.2511297926447895</v>
+        <v>0.3304853426603245</v>
       </c>
       <c r="N6">
-        <v>1.634954920013585</v>
+        <v>0.8942261124475865</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.184066061757107</v>
+        <v>2.064061331292294</v>
       </c>
       <c r="C7">
-        <v>0.1692150174249321</v>
+        <v>0.3530100796323552</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.09440839802856082</v>
+        <v>0.03740195293433368</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>1.074546056503735</v>
+        <v>0.822787679680431</v>
       </c>
       <c r="H7">
-        <v>1.060243972777727</v>
+        <v>0.5588597778143054</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1862099183549049</v>
+        <v>0.1268980894963718</v>
       </c>
       <c r="M7">
-        <v>0.2550087641154022</v>
+        <v>0.3460867442325082</v>
       </c>
       <c r="N7">
-        <v>1.62839356068836</v>
+        <v>0.8776101704598807</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.29899306187508</v>
+        <v>2.499823558687467</v>
       </c>
       <c r="C8">
-        <v>0.1888739359385454</v>
+        <v>0.4143267075133963</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09382082764458799</v>
+        <v>0.036592568597689</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>1.084397789859139</v>
+        <v>0.9117379470538935</v>
       </c>
       <c r="H8">
-        <v>1.056793515364831</v>
+        <v>0.5885548649766292</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1893391156578872</v>
+        <v>0.1445640622358439</v>
       </c>
       <c r="M8">
-        <v>0.2724301209722313</v>
+        <v>0.4157641760864763</v>
       </c>
       <c r="N8">
-        <v>1.600871625736817</v>
+        <v>0.8074107539893371</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.529025593851657</v>
+        <v>3.374988126242727</v>
       </c>
       <c r="C9">
-        <v>0.2267912409332666</v>
+        <v>0.5358927115422887</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09280035333885195</v>
+        <v>0.03519184328936875</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>1.110505017616006</v>
+        <v>1.10883910048257</v>
       </c>
       <c r="H9">
-        <v>1.054911376582041</v>
+        <v>0.6592063656724179</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1962262588795269</v>
+        <v>0.1809431323224047</v>
       </c>
       <c r="M9">
-        <v>0.307686974908961</v>
+        <v>0.556255445882563</v>
       </c>
       <c r="N9">
-        <v>1.552055236249474</v>
+        <v>0.6817788211654063</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.700899153346484</v>
+        <v>4.036015156063456</v>
       </c>
       <c r="C10">
-        <v>0.2542709883035172</v>
+        <v>0.6267324612122707</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.09213039975912096</v>
+        <v>0.03428191902264732</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.133883841749707</v>
+        <v>1.271247274674437</v>
       </c>
       <c r="H10">
-        <v>1.056525420619892</v>
+        <v>0.720427616547795</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2017444259903414</v>
+        <v>0.2090183977931019</v>
       </c>
       <c r="M10">
-        <v>0.3342609514943362</v>
+        <v>0.6627395408226064</v>
       </c>
       <c r="N10">
-        <v>1.519337280364566</v>
+        <v>0.5976426251556566</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.779718992429821</v>
+        <v>4.342010125455431</v>
       </c>
       <c r="C11">
-        <v>0.2666920786650735</v>
+        <v>0.6685695224648782</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09184283379509472</v>
+        <v>0.03389527531122249</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.145444165407753</v>
+        <v>1.349890851137673</v>
       </c>
       <c r="H11">
-        <v>1.057914760269796</v>
+        <v>0.7507342576933524</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2043544416632983</v>
+        <v>0.2221545601818917</v>
       </c>
       <c r="M11">
-        <v>0.3464968894414611</v>
+        <v>0.7121182316320471</v>
       </c>
       <c r="N11">
-        <v>1.505137685462277</v>
+        <v>0.5613466408666872</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.809657319970086</v>
+        <v>4.458768718936483</v>
       </c>
       <c r="C12">
-        <v>0.2713842795383528</v>
+        <v>0.6845028222205087</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09173640493039237</v>
+        <v>0.03375292632080207</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>1.149955798290222</v>
+        <v>1.380443564468948</v>
       </c>
       <c r="H12">
-        <v>1.058535399968264</v>
+        <v>0.7626042862540885</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2053571315477853</v>
+        <v>0.2271878768750497</v>
       </c>
       <c r="M12">
-        <v>0.3511515273607557</v>
+        <v>0.7309725941242533</v>
       </c>
       <c r="N12">
-        <v>1.499859176680873</v>
+        <v>0.5479062442034475</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.803205522185237</v>
+        <v>4.433581192366148</v>
       </c>
       <c r="C13">
-        <v>0.2703742362145931</v>
+        <v>0.681066990084048</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.09175921672163967</v>
+        <v>0.03378340050587303</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.148978163038322</v>
+        <v>1.373827666282239</v>
       </c>
       <c r="H13">
-        <v>1.058397524795453</v>
+        <v>0.760029672785123</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.205140547062328</v>
+        <v>0.2261011302352074</v>
       </c>
       <c r="M13">
-        <v>0.3501481274105203</v>
+        <v>0.7269046903511764</v>
       </c>
       <c r="N13">
-        <v>1.500991610576326</v>
+        <v>0.5507870141719269</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.782180214450818</v>
+        <v>4.351597432257734</v>
       </c>
       <c r="C14">
-        <v>0.2670783369789547</v>
+        <v>0.6698784485264184</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09183402844407818</v>
+        <v>0.03388348184038126</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.145812649358476</v>
+        <v>1.352388435648123</v>
       </c>
       <c r="H14">
-        <v>1.057963924342914</v>
+        <v>0.7517026787813563</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2044366463739067</v>
+        <v>0.2225674333999308</v>
       </c>
       <c r="M14">
-        <v>0.3468794055057387</v>
+        <v>0.7136661438871101</v>
       </c>
       <c r="N14">
-        <v>1.504701442628066</v>
+        <v>0.5602346767979993</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.769313448176604</v>
+        <v>4.30149916266663</v>
       </c>
       <c r="C15">
-        <v>0.265058020810983</v>
+        <v>0.6630374573499864</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09188017373654933</v>
+        <v>0.03394531837381676</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>1.143891158453073</v>
+        <v>1.339359578792539</v>
       </c>
       <c r="H15">
-        <v>1.057710651416045</v>
+        <v>0.7466546749291751</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2040073531370155</v>
+        <v>0.2204108215737932</v>
       </c>
       <c r="M15">
-        <v>0.3448799729994576</v>
+        <v>0.7055780843397272</v>
       </c>
       <c r="N15">
-        <v>1.506986665064534</v>
+        <v>0.5660618643634447</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.695760829161372</v>
+        <v>4.016134449580818</v>
       </c>
       <c r="C16">
-        <v>0.2534576434396456</v>
+        <v>0.6240100281264063</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09214953835516493</v>
+        <v>0.03430774779422796</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>1.133147045427563</v>
+        <v>1.266210828158137</v>
       </c>
       <c r="H16">
-        <v>1.056447833958856</v>
+        <v>0.7184997923839092</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2015758618406807</v>
+        <v>0.2081677972140881</v>
       </c>
       <c r="M16">
-        <v>0.3334642658272102</v>
+        <v>0.6595331403410043</v>
       </c>
       <c r="N16">
-        <v>1.520279038783134</v>
+        <v>0.6000560923114375</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.650800867098724</v>
+        <v>3.842511873301305</v>
       </c>
       <c r="C17">
-        <v>0.2463208376727266</v>
+        <v>0.6002107941144743</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09231918488993651</v>
+        <v>0.03453716970949694</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>1.126793514560177</v>
+        <v>1.222615669675548</v>
       </c>
       <c r="H17">
-        <v>1.055841153250981</v>
+        <v>0.7018843040474962</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2001097651498327</v>
+        <v>0.2007549130486552</v>
       </c>
       <c r="M17">
-        <v>0.3264988063245227</v>
+        <v>0.6315405642735854</v>
       </c>
       <c r="N17">
-        <v>1.528608811730023</v>
+        <v>0.6214304485274416</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.62500074123534</v>
+        <v>3.743138572232738</v>
       </c>
       <c r="C18">
-        <v>0.2422084419477528</v>
+        <v>0.5865693466808182</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09241838038842021</v>
+        <v>0.03467168592160896</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.123226156821431</v>
+        <v>1.197983511532016</v>
       </c>
       <c r="H18">
-        <v>1.055553848372057</v>
+        <v>0.6925561152355328</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.199275897073008</v>
+        <v>0.1965251089492028</v>
       </c>
       <c r="M18">
-        <v>0.3225063246412816</v>
+        <v>0.6155269535031422</v>
       </c>
       <c r="N18">
-        <v>1.53346424179373</v>
+        <v>0.6339093023282052</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.616275512804577</v>
+        <v>3.709573026384817</v>
       </c>
       <c r="C19">
-        <v>0.240814766917623</v>
+        <v>0.5819582228838556</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09245224461361579</v>
+        <v>0.03471766626763384</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.122033228592898</v>
+        <v>1.189716995399522</v>
       </c>
       <c r="H19">
-        <v>1.05546714909886</v>
+        <v>0.689435852381024</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1989951771783609</v>
+        <v>0.195098602543311</v>
       </c>
       <c r="M19">
-        <v>0.3211569213998331</v>
+        <v>0.6101193598355792</v>
       </c>
       <c r="N19">
-        <v>1.535119255239112</v>
+        <v>0.6381656150155877</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.655580758925112</v>
+        <v>3.860942740000212</v>
       </c>
       <c r="C20">
-        <v>0.2470813380643051</v>
+        <v>0.6027392589510612</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09230095818714301</v>
+        <v>0.03451248156539899</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.127460845149614</v>
+        <v>1.227210035916926</v>
       </c>
       <c r="H20">
-        <v>1.055899353438235</v>
+        <v>0.7036291132148449</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.200264861714686</v>
+        <v>0.2015404745008595</v>
       </c>
       <c r="M20">
-        <v>0.3272388564717446</v>
+        <v>0.6345112760906986</v>
       </c>
       <c r="N20">
-        <v>1.527715430126986</v>
+        <v>0.6191358402192337</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.78835338944009</v>
+        <v>4.375652978888809</v>
       </c>
       <c r="C21">
-        <v>0.2680467313890347</v>
+        <v>0.6731621958438154</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.09181198755414988</v>
+        <v>0.03385397399941414</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.146738793435247</v>
+        <v>1.358663963103965</v>
       </c>
       <c r="H21">
-        <v>1.058088715272874</v>
+        <v>0.7541374956555273</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.204643010165384</v>
+        <v>0.2236037111941158</v>
       </c>
       <c r="M21">
-        <v>0.3478389344716604</v>
+        <v>0.7175502234810622</v>
       </c>
       <c r="N21">
-        <v>1.503609098124248</v>
+        <v>0.5574512492012222</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.875658127287579</v>
+        <v>4.717271236666704</v>
       </c>
       <c r="C22">
-        <v>0.2816824235933382</v>
+        <v>0.7197243600218712</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09150678819289015</v>
+        <v>0.03344737205289761</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>1.16011948336353</v>
+        <v>1.449124301148373</v>
       </c>
       <c r="H22">
-        <v>1.060070717973957</v>
+        <v>0.7894634529716029</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2075879245118841</v>
+        <v>0.2383703420460819</v>
       </c>
       <c r="M22">
-        <v>0.3614255649957556</v>
+        <v>0.7727398801356031</v>
       </c>
       <c r="N22">
-        <v>1.488428860318612</v>
+        <v>0.5189199796210064</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.829013486660926</v>
+        <v>4.534420532162471</v>
       </c>
       <c r="C23">
-        <v>0.2744108579365161</v>
+        <v>0.6948181430776685</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09166836619928054</v>
+        <v>0.03366215659472482</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>1.152906140654807</v>
+        <v>1.400396582395274</v>
       </c>
       <c r="H23">
-        <v>1.058962349606276</v>
+        <v>0.7703829914047731</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2060085286441904</v>
+        <v>0.2304550368215814</v>
       </c>
       <c r="M23">
-        <v>0.3541628524604548</v>
+        <v>0.7431926100910502</v>
       </c>
       <c r="N23">
-        <v>1.496478186113838</v>
+        <v>0.5393146467783927</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.653419620445277</v>
+        <v>3.852608769465462</v>
       </c>
       <c r="C24">
-        <v>0.246737544970415</v>
+        <v>0.6015960133745182</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0923091932977258</v>
+        <v>0.0345236349297231</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.127158879139444</v>
+        <v>1.225131586075548</v>
       </c>
       <c r="H24">
-        <v>1.055872849639627</v>
+        <v>0.7028395894109849</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.200194714491019</v>
+        <v>0.2011852230988609</v>
       </c>
       <c r="M24">
-        <v>0.3269042422527093</v>
+        <v>0.6331679705917637</v>
       </c>
       <c r="N24">
-        <v>1.528119120720211</v>
+        <v>0.6201726408841139</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.466293937935518</v>
+        <v>3.135489570108234</v>
       </c>
       <c r="C25">
-        <v>0.2166006050215401</v>
+        <v>0.5027942322696219</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09306236894773923</v>
+        <v>0.03555028339209865</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>1.102709467567777</v>
+        <v>1.052721764031077</v>
       </c>
       <c r="H25">
-        <v>1.054895674789762</v>
+        <v>0.6385933970981768</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1942826793285946</v>
+        <v>0.1708874170768127</v>
       </c>
       <c r="M25">
-        <v>0.298031568893137</v>
+        <v>0.5177466606902357</v>
       </c>
       <c r="N25">
-        <v>1.564709051518709</v>
+        <v>0.714396520443191</v>
       </c>
       <c r="O25">
         <v>0</v>
